--- a/html/resources/aoiConditions/train2Block17.xlsx
+++ b/html/resources/aoiConditions/train2Block17.xlsx
@@ -25,25 +25,25 @@
     <t>trainingaudio/15_kopota3.wav</t>
   </si>
   <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
   </si>
   <si>
     <t>pngimages/15_barrel.png</t>
   </si>
   <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
   </si>
 </sst>
 </file>
